--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N2">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O2">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P2">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q2">
-        <v>1079.705906734862</v>
+        <v>0.0003116804</v>
       </c>
       <c r="R2">
-        <v>9717.353160613757</v>
+        <v>0.0028051236</v>
       </c>
       <c r="S2">
-        <v>0.141689482500882</v>
+        <v>2.577626380350359E-05</v>
       </c>
       <c r="T2">
-        <v>0.141689482500882</v>
+        <v>2.577626380350359E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.1055</v>
       </c>
       <c r="O3">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P3">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q3">
-        <v>1.647857660277778</v>
+        <v>0.001461175</v>
       </c>
       <c r="R3">
-        <v>14.8307189425</v>
+        <v>0.013150575</v>
       </c>
       <c r="S3">
-        <v>0.0002162478668158366</v>
+        <v>0.0001208405541801293</v>
       </c>
       <c r="T3">
-        <v>0.0002162478668158366</v>
+        <v>0.0001208405541801293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>849.531647</v>
       </c>
       <c r="I4">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J4">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N4">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O4">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P4">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q4">
-        <v>6524.921546441886</v>
+        <v>2.124206687120889</v>
       </c>
       <c r="R4">
-        <v>58724.29391797697</v>
+        <v>19.117860184088</v>
       </c>
       <c r="S4">
-        <v>0.8562634987058875</v>
+        <v>0.1756739016646361</v>
       </c>
       <c r="T4">
-        <v>0.8562634987058876</v>
+        <v>0.1756739016646361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.1055</v>
       </c>
       <c r="O5">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P5">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q5">
         <v>9.958398750944443</v>
@@ -756,10 +756,10 @@
         <v>89.6255887585</v>
       </c>
       <c r="S5">
-        <v>0.001306837683074045</v>
+        <v>0.823568993317593</v>
       </c>
       <c r="T5">
-        <v>0.001306837683074045</v>
+        <v>0.8235689933175929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>0.519022</v>
       </c>
       <c r="I6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N6">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O6">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P6">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q6">
-        <v>3.986405736427333</v>
+        <v>0.001297785676444444</v>
       </c>
       <c r="R6">
-        <v>35.877651627846</v>
+        <v>0.011680071088</v>
       </c>
       <c r="S6">
-        <v>0.0005231348298732974</v>
+        <v>0.0001073281026219177</v>
       </c>
       <c r="T6">
-        <v>0.0005231348298732973</v>
+        <v>0.0001073281026219177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.519022</v>
       </c>
       <c r="I7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.1055</v>
       </c>
       <c r="O7">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P7">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q7">
         <v>0.006084091222222221</v>
@@ -880,10 +880,10 @@
         <v>0.054756821</v>
       </c>
       <c r="S7">
-        <v>7.984134673966502E-07</v>
+        <v>0.0005031600971654959</v>
       </c>
       <c r="T7">
-        <v>7.984134673966501E-07</v>
+        <v>0.0005031600971654957</v>
       </c>
     </row>
   </sheetData>
